--- a/SolucionAsignarBacklogSprint_tareasnotylog.xlsx
+++ b/SolucionAsignarBacklogSprint_tareasnotylog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC02\Desktop\Clases 2021\Primer semestre\METODOLOGIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC02\Desktop\Cloning\Tarea1-Landing-Page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AE83CD-192A-468B-B9C9-78902DA84807}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC00C360-40A0-430F-9026-05ADCF3542B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
   <si>
     <t>Est.</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>Esteban</t>
+  </si>
+  <si>
+    <t>Terminado</t>
   </si>
 </sst>
 </file>
@@ -2369,8 +2372,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AF76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="AI27" sqref="AI27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3231,7 +3234,7 @@
         <v>41</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="G22" s="39">
         <v>5</v>
@@ -3259,7 +3262,7 @@
         <v>76</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="G23" s="1">
         <v>7</v>
@@ -3287,7 +3290,7 @@
         <v>76</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="G24" s="1">
         <v>7</v>
@@ -3315,7 +3318,7 @@
         <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="G25" s="1">
         <v>6</v>
@@ -6081,10 +6084,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C085B49D8EA0B841BB13C2D2E0324BC1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="af6e1289086d737a292be12ac06bd9f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="396b61ed-e70d-4970-8278-f04db2012445" xmlns:ns4="f38517f3-f25a-456e-a2f4-13d24a941df5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7263abd343232757f8addea3b590ced7" ns3:_="" ns4:_="">
     <xsd:import namespace="396b61ed-e70d-4970-8278-f04db2012445"/>
@@ -6301,30 +6315,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E379A4C6-2860-45CA-BC84-501A5C3DA816}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05002568-7AEC-4F01-8608-7227AF087BB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF6B976E-19D9-4A12-8B5E-B576F4080915}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f38517f3-f25a-456e-a2f4-13d24a941df5"/>
+    <ds:schemaRef ds:uri="396b61ed-e70d-4970-8278-f04db2012445"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD928D5B-5A08-4502-9581-D9D617A2EFE3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6343,27 +6363,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF6B976E-19D9-4A12-8B5E-B576F4080915}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E379A4C6-2860-45CA-BC84-501A5C3DA816}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f38517f3-f25a-456e-a2f4-13d24a941df5"/>
-    <ds:schemaRef ds:uri="396b61ed-e70d-4970-8278-f04db2012445"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05002568-7AEC-4F01-8608-7227AF087BB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>